--- a/docs/odh/shr-core-MedicationRequest.xlsx
+++ b/docs/odh/shr-core-MedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="391">
   <si>
     <t>Path</t>
   </si>
@@ -225,26 +225,111 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>MedicationRequest.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>MedicationRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationRequest.meta.extension</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>MedicationRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>MedicationRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>MedicationRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension</t>
   </si>
   <si>
     <t>extensions
@@ -258,216 +343,10 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>MedicationRequest.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>MedicationRequest.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>MedicationRequest.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>MedicationRequest.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>MedicationRequest.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>MedicationRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>MedicationRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>MedicationRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -708,6 +587,13 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>MedicationOrder.medication[x]</t>
@@ -734,6 +620,15 @@
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
   </si>
   <si>
+    <t>MedicationRequest.medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>http://h7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
+  </si>
+  <si>
     <t>MedicationRequest.subject</t>
   </si>
   <si>
@@ -874,7 +769,29 @@
     <t>MedicationRequest.requester.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationRequest.requester.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationRequest.requester.modifierExtension</t>
@@ -978,6 +895,9 @@
   </si>
   <si>
     <t>This could be a diagnosis code. If a full condition record exists or additional detail is needed, use reasonReference.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>A coded concept indicating why the medication was ordered.</t>
@@ -1482,7 +1402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP59"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1492,7 +1412,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="58.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1518,7 +1438,7 @@
     <col min="25" max="25" width="62.12890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="58.46484375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2025,10 +1945,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>68</v>
@@ -2039,7 +1959,9 @@
       <c r="L5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2088,7 +2010,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2112,7 +2034,7 @@
         <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>45</v>
@@ -2127,14 +2049,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2146,16 +2068,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2181,37 +2103,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2229,7 +2151,7 @@
         <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>45</v>
@@ -2240,11 +2162,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2260,19 +2182,19 @@
         <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2321,13 +2243,17 @@
       <c r="AD7" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>55</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2342,7 +2268,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2353,18 +2279,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2373,19 +2299,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2434,11 +2360,15 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2455,7 +2385,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2466,11 +2396,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2486,19 +2416,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2547,11 +2477,15 @@
       <c r="AD9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE9" s="2"/>
+      <c r="AE9" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2568,7 +2502,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2579,11 +2513,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2596,22 +2530,22 @@
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2637,13 +2571,13 @@
         <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>45</v>
@@ -2660,11 +2594,15 @@
       <c r="AD10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2681,7 +2619,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2692,7 +2630,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2712,20 +2650,18 @@
         <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2750,34 +2686,38 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2788,24 +2728,24 @@
         <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2816,29 +2756,27 @@
         <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2887,13 +2825,13 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>45</v>
@@ -2905,13 +2843,13 @@
         <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -2922,7 +2860,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2933,7 +2871,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>45</v>
@@ -2942,20 +2880,18 @@
         <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
@@ -2980,13 +2916,13 @@
         <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>45</v>
@@ -3004,13 +2940,13 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>45</v>
@@ -3022,13 +2958,13 @@
         <v>45</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3039,11 +2975,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3059,21 +2995,21 @@
         <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3130,7 +3066,7 @@
         <v>55</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>45</v>
@@ -3139,13 +3075,13 @@
         <v>45</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3154,41 +3090,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3214,13 +3150,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3238,13 +3174,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3253,19 +3189,19 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3273,39 +3209,39 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3331,13 +3267,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3355,13 +3291,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3373,16 +3309,16 @@
         <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3390,40 +3326,38 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3448,13 +3382,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3472,13 +3404,13 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>45</v>
@@ -3493,13 +3425,13 @@
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3507,7 +3439,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3518,7 +3450,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3527,16 +3459,16 @@
         <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3563,13 +3495,13 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3587,13 +3519,13 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3605,24 +3537,24 @@
         <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3630,13 +3562,13 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>45</v>
@@ -3645,15 +3577,17 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3678,37 +3612,35 @@
         <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3717,38 +3649,40 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3760,13 +3694,13 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3793,13 +3727,11 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>45</v>
@@ -3817,13 +3749,13 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -3835,13 +3767,13 @@
         <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -3850,9 +3782,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3860,13 +3792,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
@@ -3875,18 +3807,18 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3934,10 +3866,10 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>55</v>
@@ -3949,27 +3881,27 @@
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3977,31 +3909,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4027,13 +3959,13 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4051,7 +3983,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4066,27 +3998,27 @@
         <v>45</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4094,32 +4026,30 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4144,13 +4074,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4168,13 +4098,13 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4186,24 +4116,24 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4211,28 +4141,28 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4259,11 +4189,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4281,7 +4213,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4296,27 +4228,27 @@
         <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4324,13 +4256,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>45</v>
@@ -4339,13 +4271,13 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4372,13 +4304,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4396,7 +4328,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4408,30 +4340,30 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4439,32 +4371,30 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4489,13 +4419,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4513,10 +4443,10 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>55</v>
@@ -4528,59 +4458,59 @@
         <v>45</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4630,13 +4560,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4645,59 +4575,59 @@
         <v>45</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4747,13 +4677,13 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -4765,24 +4695,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4790,30 +4720,32 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4862,13 +4794,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -4877,27 +4809,27 @@
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4905,13 +4837,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -4920,16 +4852,18 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -4977,7 +4911,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -4986,33 +4920,33 @@
         <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5020,28 +4954,28 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5092,7 +5026,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5104,22 +5038,22 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5127,7 +5061,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5150,15 +5084,17 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5183,13 +5119,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5207,13 +5143,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5225,35 +5161,35 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5265,16 +5201,16 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5324,7 +5260,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5342,16 +5278,16 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5359,40 +5295,38 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5441,7 +5375,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5459,13 +5393,13 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5474,9 +5408,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5484,31 +5418,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5558,13 +5492,13 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
@@ -5573,27 +5507,27 @@
         <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5613,21 +5547,19 @@
         <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5675,7 +5607,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5684,22 +5616,22 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5710,7 +5642,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5733,13 +5665,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5790,7 +5722,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5814,10 +5746,10 @@
         <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -5825,18 +5757,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5848,16 +5780,16 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5883,13 +5815,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5907,7 +5839,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5925,56 +5857,56 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>104</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6024,7 +5956,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6042,16 +5974,16 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>316</v>
+        <v>98</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6059,7 +5991,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6082,16 +6014,20 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6139,13 +6075,13 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
@@ -6157,13 +6093,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6174,7 +6110,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6197,16 +6133,16 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6256,13 +6192,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6274,24 +6210,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6314,7 +6250,7 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>332</v>
@@ -6371,7 +6307,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6383,25 +6319,25 @@
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -6429,15 +6365,17 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>68</v>
+        <v>338</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>69</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6486,7 +6424,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6507,10 +6445,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>72</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6521,18 +6459,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6544,17 +6482,15 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6603,13 +6539,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6627,10 +6563,10 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>72</v>
+        <v>348</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6638,40 +6574,38 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6720,19 +6654,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6741,10 +6675,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>141</v>
+        <v>353</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6755,7 +6689,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6778,20 +6712,16 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>342</v>
+        <v>237</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6839,7 +6769,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>239</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6860,10 +6790,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>347</v>
+        <v>240</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6874,18 +6804,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -6897,16 +6827,16 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>349</v>
+        <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>350</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>242</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>104</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6956,13 +6886,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -6977,16 +6907,16 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>354</v>
+        <v>240</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -6995,34 +6925,36 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7071,13 +7003,13 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>356</v>
+        <v>247</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
@@ -7092,21 +7024,21 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7114,7 +7046,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>55</v>
@@ -7123,22 +7055,22 @@
         <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7188,42 +7120,42 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7246,13 +7178,13 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>371</v>
+        <v>159</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7279,13 +7211,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7303,42 +7235,42 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7361,13 +7293,13 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>262</v>
+        <v>373</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7418,7 +7350,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7430,19 +7362,19 @@
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7453,18 +7385,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7476,13 +7408,13 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>68</v>
+        <v>380</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>69</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>70</v>
+        <v>382</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7533,13 +7465,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>71</v>
+        <v>378</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7557,7 +7489,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>72</v>
+        <v>383</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7568,11 +7500,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7591,16 +7523,16 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>385</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7650,7 +7582,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7668,719 +7600,23 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>72</v>
+        <v>390</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO59" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO59">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8390,7 +7626,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-MedicationRequest.xlsx
+++ b/docs/odh/shr-core-MedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="461">
   <si>
     <t>Path</t>
   </si>
@@ -225,13 +225,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>MedicationRequest.implicitRules</t>
+    <t>MedicationRequest.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>MedicationRequest.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -261,9 +410,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -332,24 +478,100 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>medicationbasedon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationBasedOn-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
+    <t>MedicationBasedOn</t>
+  </si>
+  <si>
+    <t>statusreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-StatusReason-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
+    <t>reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Reported-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Indicates if this record was captured as a secondary 'reported' record rather than as an original primary source-of-truth record. It may also indicate the source of the report.</t>
+  </si>
+  <si>
+    <t>expectedperformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ExpectedPerformer-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Who this request is being addressed to.</t>
+  </si>
+  <si>
+    <t>expectedperformertype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ExpectedPerformerType-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>What type of party should carry out the testing.</t>
+  </si>
+  <si>
+    <t>courseoftherapytype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-CourseOfTherapyType-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The description of the overall pattern of the administration of the medication to the patient.</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Insurance-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Code-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>expectedperformancetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ExpectedPerformanceTime-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When an action should be done. If the action is a series or recurs (e.g. daily blood sugar testing in the morning) then a Timing can be used to describe the periodicity.</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -362,6 +584,16 @@
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>donotperform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DoNotPerform-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A flag, when set to true, indicates that the service/procedure should NOT be performed.</t>
   </si>
   <si>
     <t>MedicationRequest.identifier</t>
@@ -571,7 +803,7 @@
   </si>
   <si>
     <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication]]}</t>
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Medication]]}</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -591,9 +823,6 @@
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>MedicationOrder.medication[x]</t>
@@ -632,7 +861,7 @@
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -668,7 +897,7 @@
     <t>MedicationRequest.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -696,7 +925,7 @@
     <t>MedicationRequest.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource]]}
 </t>
   </si>
   <si>
@@ -769,29 +998,7 @@
     <t>MedicationRequest.requester.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationRequest.requester.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationRequest.requester.modifierExtension</t>
@@ -810,7 +1017,7 @@
     <t>MedicationRequest.requester.agent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
   <si>
@@ -869,87 +1076,80 @@
     <t>MedicationRequest.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
+    <t>Person who entered the request</t>
+  </si>
+  <si>
+    <t>The person who entered the order on behalf of another individual for example in the case of a verbal or a telephone order.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>MedicationRequest.reasonCode</t>
+  </si>
+  <si>
+    <t>Reason or indication for writing the prescription</t>
+  </si>
+  <si>
+    <t>The reason or the indication for ordering the medication.</t>
+  </si>
+  <si>
+    <t>This could be a diagnosis code. If a full condition record exists or additional detail is needed, use reasonReference.</t>
+  </si>
+  <si>
+    <t>A coded concept indicating why the medication was ordered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+  </si>
+  <si>
+    <t>…reasonCode</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/Diagnosis/Primary/Value</t>
+  </si>
+  <si>
+    <t>reason.observation.reasonCode</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>ORC-16-Order Control Code Reason /RXE-27-Give Indication/RXO-20-Indication / RXD-21-Indication / RXG-22-Indication / RXA-19-Indication</t>
+  </si>
+  <si>
+    <t>MedicationRequest.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
-    <t>Person who entered the request</t>
-  </si>
-  <si>
-    <t>The person who entered the order on behalf of another individual for example in the case of a verbal or a telephone order.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>MedicationRequest.reasonCode</t>
-  </si>
-  <si>
-    <t>Reason or indication for writing the prescription</t>
-  </si>
-  <si>
-    <t>The reason or the indication for ordering the medication.</t>
-  </si>
-  <si>
-    <t>This could be a diagnosis code. If a full condition record exists or additional detail is needed, use reasonReference.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept indicating why the medication was ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
-  </si>
-  <si>
-    <t>…reasonCode</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Diagnosis/Primary/Value</t>
-  </si>
-  <si>
-    <t>reason.observation.reasonCode</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>ORC-16-Order Control Code Reason /RXE-27-Give Indication/RXO-20-Indication / RXD-21-Indication / RXG-22-Indication / RXA-19-Indication</t>
-  </si>
-  <si>
-    <t>MedicationRequest.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition]]}
+    <t>Condition or Observation that supports why the prescription is being written</t>
+  </si>
+  <si>
+    <t>Condition or observation that supports why the medication was ordered.</t>
+  </si>
+  <si>
+    <t>This is a reference to a condition or observation that is the reason for the medication order.  If only a code exists, use reasonCode.</t>
+  </si>
+  <si>
+    <t>…reasonReference</t>
+  </si>
+  <si>
+    <t>reason.observation[code=ASSERTION].value</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation]]} {[]}
 </t>
   </si>
   <si>
-    <t>Condition or Observation that supports why the prescription is being written</t>
-  </si>
-  <si>
-    <t>Condition or observation that supports why the medication was ordered.</t>
-  </si>
-  <si>
-    <t>This is a reference to a condition or observation that is the reason for the medication order.  If only a code exists, use reasonCode.</t>
-  </si>
-  <si>
-    <t>…reasonReference</t>
-  </si>
-  <si>
-    <t>reason.observation[code=ASSERTION].value</t>
-  </si>
-  <si>
-    <t>MedicationRequest.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation]]} {[]}
-</t>
-  </si>
-  <si>
     <t>Information about the prescription</t>
   </si>
   <si>
@@ -968,7 +1168,7 @@
     <t>MedicationRequest.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Dosage]]} {[]}
+    <t xml:space="preserve">Dosage {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Dosage]]} {[]}
 </t>
   </si>
   <si>
@@ -1012,6 +1212,36 @@
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
+    <t>initialfill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-InitialFill-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Indicates the quantity or duration for the first dispense of the medication.</t>
+  </si>
+  <si>
+    <t>dispenseinterval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DispenseInterval-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The minimum period of time that must occur between dispenses of the medication.</t>
+  </si>
+  <si>
+    <t>numberofrefillsallowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-NumberOfRefillsAllowed-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The maximum number of times the dispense can be repeated. For medication dispense, this integer does NOT include the original order dispense. This means that if an order indicates dispense 30 tablets plus 3 repeats, then the order can be dispensed a total of 4 times and the patient can receive a total of 120 tablets.</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.modifierExtension</t>
   </si>
   <si>
@@ -1090,7 +1320,7 @@
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Duration {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Duration]]} {[]}
+    <t xml:space="preserve">Duration {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Duration]]} {[]}
 </t>
   </si>
   <si>
@@ -1112,7 +1342,7 @@
     <t>MedicationRequest.dispenseRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -1165,9 +1395,6 @@
     <t>This element is labeled as a modifer because whether substitution is allow or not cannot be ignored.</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>RXO-9-Allow Substitutions / RXE-9-Substitution Status</t>
   </si>
   <si>
@@ -1198,7 +1425,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationRequest]]}
 </t>
   </si>
   <si>
@@ -1402,7 +1629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1412,7 +1639,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="58.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1438,7 +1665,7 @@
     <col min="25" max="25" width="62.12890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="58.46484375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1945,10 +2172,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>68</v>
@@ -1959,9 +2186,7 @@
       <c r="L5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2010,7 +2235,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2034,7 +2259,7 @@
         <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>45</v>
@@ -2049,14 +2274,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2068,16 +2293,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2103,37 +2328,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2151,7 +2376,7 @@
         <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>45</v>
@@ -2162,11 +2387,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2187,15 +2414,11 @@
       <c r="J7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>87</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>45</v>
@@ -2244,16 +2467,16 @@
         <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2268,7 +2491,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2279,18 +2502,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2299,19 +2522,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2360,15 +2583,11 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>97</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2385,7 +2604,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2396,18 +2615,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>45</v>
@@ -2416,19 +2635,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2477,15 +2696,11 @@
       <c r="AD9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE9" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2502,7 +2717,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2513,11 +2728,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2530,22 +2745,22 @@
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2594,15 +2809,11 @@
       <c r="AD10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>109</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2619,7 +2830,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2630,7 +2841,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2650,18 +2861,20 @@
         <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2686,13 +2899,13 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>45</v>
@@ -2709,15 +2922,11 @@
       <c r="AD11" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2728,24 +2937,24 @@
         <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2768,15 +2977,17 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2801,13 +3012,13 @@
         <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>45</v>
@@ -2824,15 +3035,11 @@
       <c r="AD12" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>45</v>
       </c>
@@ -2843,13 +3050,13 @@
         <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -2860,7 +3067,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2871,27 +3078,29 @@
         <v>43</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
@@ -2940,13 +3149,13 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>45</v>
@@ -2958,13 +3167,13 @@
         <v>45</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -2975,7 +3184,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2995,21 +3204,21 @@
         <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3033,13 +3242,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3057,7 +3266,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3075,13 +3284,13 @@
         <v>45</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3090,41 +3299,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3150,13 +3359,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3174,7 +3383,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3183,25 +3392,25 @@
         <v>55</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3209,39 +3418,39 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3267,13 +3476,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3291,13 +3500,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3309,16 +3518,16 @@
         <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3326,18 +3535,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
@@ -3349,15 +3558,17 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3382,35 +3593,35 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>45</v>
@@ -3425,13 +3636,13 @@
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3439,9 +3650,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3450,7 +3663,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3459,16 +3672,14 @@
         <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3495,13 +3706,13 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3519,13 +3730,13 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3537,16 +3748,16 @@
         <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3554,40 +3765,38 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3612,35 +3821,37 @@
         <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3649,37 +3860,37 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>55</v>
@@ -3691,16 +3902,14 @@
         <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3727,11 +3936,13 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>45</v>
@@ -3749,13 +3960,13 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -3782,42 +3993,40 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3866,13 +4075,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -3881,29 +4090,31 @@
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>45</v>
       </c>
@@ -3924,17 +4135,13 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -3983,13 +4190,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4001,26 +4208,28 @@
         <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4029,7 +4238,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4041,13 +4250,11 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4098,7 +4305,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4122,47 +4329,47 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4213,13 +4420,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4228,56 +4435,56 @@
         <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4328,34 +4535,34 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4363,9 +4570,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4386,13 +4595,11 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4443,13 +4650,13 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4467,7 +4674,7 @@
         <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4478,11 +4685,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4495,22 +4702,22 @@
         <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4548,19 +4755,17 @@
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4584,7 +4789,7 @@
         <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4593,42 +4798,40 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C28" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>56</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4677,7 +4880,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4701,7 +4904,7 @@
         <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4710,9 +4913,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4720,32 +4923,30 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4794,13 +4995,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -4809,27 +5010,27 @@
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>257</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4840,7 +5041,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -4852,18 +5053,16 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -4911,16 +5110,16 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>45</v>
@@ -4929,13 +5128,13 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -4946,7 +5145,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4957,7 +5156,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -4966,16 +5165,16 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5026,13 +5225,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5044,16 +5243,16 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5061,7 +5260,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5081,21 +5280,21 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5119,13 +5318,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5143,13 +5342,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5161,24 +5360,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5186,31 +5385,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5236,13 +5435,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5260,13 +5459,13 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
@@ -5275,19 +5474,19 @@
         <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5295,7 +5494,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5303,7 +5502,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>55</v>
@@ -5312,21 +5511,23 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>121</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5351,13 +5552,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5375,13 +5576,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5393,16 +5594,16 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5410,7 +5611,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5433,17 +5634,15 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5468,13 +5667,11 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5492,13 +5689,13 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
@@ -5510,16 +5707,16 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5527,7 +5724,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5547,16 +5744,16 @@
         <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5583,13 +5780,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5607,7 +5804,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5619,22 +5816,22 @@
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -5642,7 +5839,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5650,30 +5847,32 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5698,34 +5897,32 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>55</v>
@@ -5737,38 +5934,40 @@
         <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="C38" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5777,20 +5976,18 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5815,13 +6012,11 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5839,13 +6034,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5863,7 +6058,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5872,41 +6067,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5956,13 +6151,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -5971,27 +6166,27 @@
         <v>45</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6014,20 +6209,18 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6075,7 +6268,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6093,24 +6286,24 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>320</v>
+        <v>218</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6121,7 +6314,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6133,17 +6326,15 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6192,13 +6383,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6213,21 +6404,21 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6235,28 +6426,28 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6307,7 +6498,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6322,27 +6513,27 @@
         <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>336</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6350,32 +6541,30 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6424,7 +6613,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6436,22 +6625,22 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6459,7 +6648,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6482,13 +6671,13 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>345</v>
+        <v>68</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>346</v>
+        <v>69</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>70</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6539,7 +6728,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>71</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6563,10 +6752,10 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>348</v>
+        <v>72</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6574,18 +6763,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6597,15 +6786,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6654,19 +6845,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6675,10 +6866,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6689,38 +6880,40 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6769,13 +6962,13 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
@@ -6793,7 +6986,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6802,41 +6995,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>102</v>
+        <v>314</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6886,13 +7079,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -6901,61 +7094,61 @@
         <v>45</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>107</v>
+        <v>324</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7003,16 +7196,16 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>45</v>
@@ -7021,13 +7214,13 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>98</v>
+        <v>329</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7038,7 +7231,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7046,7 +7239,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>55</v>
@@ -7055,23 +7248,21 @@
         <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7120,10 +7311,10 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>55</v>
@@ -7141,21 +7332,21 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7178,15 +7369,17 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7211,13 +7404,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7235,13 +7428,13 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
@@ -7253,24 +7446,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>371</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7293,15 +7486,17 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7350,13 +7545,13 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
@@ -7368,16 +7563,16 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>369</v>
+        <v>218</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -7385,18 +7580,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7408,13 +7603,13 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7465,7 +7660,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7483,13 +7678,13 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7500,7 +7695,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7523,16 +7718,16 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7582,7 +7777,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7600,23 +7795,2456 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" s="2"/>
+      <c r="AC56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AN53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO53" t="s" s="2">
+      <c r="O61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
+  <autoFilter ref="A1:AO74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7626,7 +10254,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
